--- a/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -35896,13 +35896,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>16867</v>
+        <v>16869</v>
       </c>
       <c r="D696" t="n">
         <v>2631</v>
       </c>
       <c r="E696" t="n">
-        <v>25929535</v>
+        <v>25930135</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17547</v>
+        <v>17549</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38603446</v>
+        <v>38605108</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19700</v>
+        <v>19702</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56409367</v>
+        <v>56430548</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36457,13 +36457,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>5962</v>
+        <v>5963</v>
       </c>
       <c r="D707" t="n">
         <v>1306</v>
       </c>
       <c r="E707" t="n">
-        <v>11514574</v>
+        <v>11516074</v>
       </c>
       <c r="F707" t="inlineStr">
         <is>
@@ -36508,13 +36508,13 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>9689</v>
+        <v>9693</v>
       </c>
       <c r="D708" t="n">
         <v>1445</v>
       </c>
       <c r="E708" t="n">
-        <v>31925215</v>
+        <v>31946051</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5669</v>
+        <v>5673</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17048488</v>
+        <v>17148182</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -37324,13 +37324,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="D724" t="n">
         <v>448</v>
       </c>
       <c r="E724" t="n">
-        <v>6576697</v>
+        <v>6585048</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -37375,13 +37375,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>3307</v>
+        <v>3317</v>
       </c>
       <c r="D725" t="n">
         <v>409</v>
       </c>
       <c r="E725" t="n">
-        <v>9065014</v>
+        <v>9227172</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>78160</v>
+        <v>78161</v>
       </c>
       <c r="D836" t="n">
         <v>8364</v>
       </c>
       <c r="E836" t="n">
-        <v>183632643</v>
+        <v>183749036</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43138,13 +43138,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>16731</v>
+        <v>16732</v>
       </c>
       <c r="D838" t="n">
         <v>3086</v>
       </c>
       <c r="E838" t="n">
-        <v>64799383</v>
+        <v>64923201</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43342,13 +43342,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>17784</v>
+        <v>17786</v>
       </c>
       <c r="D842" t="n">
         <v>2366</v>
       </c>
       <c r="E842" t="n">
-        <v>135241339</v>
+        <v>135355942</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -43495,13 +43495,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>25089</v>
+        <v>25090</v>
       </c>
       <c r="D845" t="n">
         <v>3136</v>
       </c>
       <c r="E845" t="n">
-        <v>90134841</v>
+        <v>90142141</v>
       </c>
       <c r="F845" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21647</v>
+        <v>21649</v>
       </c>
       <c r="D848" t="n">
         <v>4244</v>
       </c>
       <c r="E848" t="n">
-        <v>85527366</v>
+        <v>85535614</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108537</v>
+        <v>108539</v>
       </c>
       <c r="D852" t="n">
         <v>19715</v>
       </c>
       <c r="E852" t="n">
-        <v>559490701</v>
+        <v>559595635</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90238</v>
+        <v>90240</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232585032</v>
+        <v>232590778</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182095</v>
+        <v>182105</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1646520939</v>
+        <v>1646601645</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>59998</v>
+        <v>60001</v>
       </c>
       <c r="D855" t="n">
         <v>9812</v>
       </c>
       <c r="E855" t="n">
-        <v>286494415</v>
+        <v>286509286</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23224</v>
+        <v>23226</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82703852</v>
+        <v>82707326</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183792</v>
+        <v>183799</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552189742</v>
+        <v>552241020</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51275</v>
+        <v>51276</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>422311944</v>
+        <v>422315935</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34634</v>
+        <v>34638</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>69596899</v>
+        <v>70016899</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114904</v>
+        <v>114910</v>
       </c>
       <c r="D862" t="n">
         <v>14328</v>
       </c>
       <c r="E862" t="n">
-        <v>417801008</v>
+        <v>417845289</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45382,13 +45382,13 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>4726</v>
+        <v>4728</v>
       </c>
       <c r="D882" t="n">
         <v>1129</v>
       </c>
       <c r="E882" t="n">
-        <v>13959026</v>
+        <v>13959961</v>
       </c>
       <c r="F882" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40878</v>
+        <v>40879</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165321646</v>
+        <v>165444684</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32733</v>
+        <v>32734</v>
       </c>
       <c r="D888" t="n">
         <v>3649</v>
       </c>
       <c r="E888" t="n">
-        <v>189247284</v>
+        <v>189259281</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23628</v>
+        <v>23629</v>
       </c>
       <c r="D896" t="n">
         <v>3067</v>
       </c>
       <c r="E896" t="n">
-        <v>70422008</v>
+        <v>70430960</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -46759,13 +46759,13 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>29159</v>
+        <v>29160</v>
       </c>
       <c r="D909" t="n">
         <v>5710</v>
       </c>
       <c r="E909" t="n">
-        <v>70238812</v>
+        <v>70243844</v>
       </c>
       <c r="F909" t="inlineStr">
         <is>
@@ -48544,13 +48544,13 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>9245</v>
+        <v>9248</v>
       </c>
       <c r="D944" t="n">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="E944" t="n">
-        <v>50109919</v>
+        <v>50196388</v>
       </c>
       <c r="F944" t="inlineStr">
         <is>
@@ -49054,13 +49054,13 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>21931</v>
+        <v>21933</v>
       </c>
       <c r="D954" t="n">
         <v>5228</v>
       </c>
       <c r="E954" t="n">
-        <v>40055599</v>
+        <v>40056540</v>
       </c>
       <c r="F954" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19700</v>
+        <v>19703</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>66017381</v>
+        <v>66031872</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49564,13 +49564,13 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>7396</v>
+        <v>7400</v>
       </c>
       <c r="D964" t="n">
         <v>946</v>
       </c>
       <c r="E964" t="n">
-        <v>20644396</v>
+        <v>20652188</v>
       </c>
       <c r="F964" t="inlineStr">
         <is>
@@ -49666,13 +49666,13 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="D966" t="n">
         <v>788</v>
       </c>
       <c r="E966" t="n">
-        <v>5999037</v>
+        <v>5999357</v>
       </c>
       <c r="F966" t="inlineStr">
         <is>
@@ -49717,13 +49717,13 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>4154</v>
+        <v>4156</v>
       </c>
       <c r="D967" t="n">
         <v>848</v>
       </c>
       <c r="E967" t="n">
-        <v>9011715</v>
+        <v>9036256</v>
       </c>
       <c r="F967" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13100</v>
+        <v>13101</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32991663</v>
+        <v>32996553</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4750</v>
+        <v>4754</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11633084</v>
+        <v>11644170</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11117</v>
+        <v>11123</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44051783</v>
+        <v>44077924</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -50227,13 +50227,13 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>5361</v>
+        <v>5363</v>
       </c>
       <c r="D977" t="n">
         <v>1136</v>
       </c>
       <c r="E977" t="n">
-        <v>12205320</v>
+        <v>12210515</v>
       </c>
       <c r="F977" t="inlineStr">
         <is>
@@ -50329,13 +50329,13 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="D979" t="n">
         <v>492</v>
       </c>
       <c r="E979" t="n">
-        <v>4378209</v>
+        <v>4380689</v>
       </c>
       <c r="F979" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11065449</v>
+        <v>11097853</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50482,13 +50482,13 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>6170</v>
+        <v>6172</v>
       </c>
       <c r="D982" t="n">
         <v>1076</v>
       </c>
       <c r="E982" t="n">
-        <v>11073323</v>
+        <v>11075372</v>
       </c>
       <c r="F982" t="inlineStr">
         <is>
@@ -55021,13 +55021,13 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D1071" t="n">
         <v>235</v>
       </c>
       <c r="E1071" t="n">
-        <v>3408362</v>
+        <v>3608362</v>
       </c>
       <c r="F1071" t="inlineStr">
         <is>
@@ -61294,13 +61294,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>25249</v>
+        <v>25250</v>
       </c>
       <c r="D1194" t="n">
         <v>5886</v>
       </c>
       <c r="E1194" t="n">
-        <v>46011990</v>
+        <v>46021990</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
@@ -78022,13 +78022,13 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>18898</v>
+        <v>18899</v>
       </c>
       <c r="D1522" t="n">
         <v>1994</v>
       </c>
       <c r="E1522" t="n">
-        <v>106392638</v>
+        <v>106396930</v>
       </c>
       <c r="F1522" t="inlineStr">
         <is>
@@ -83275,13 +83275,13 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>41894</v>
+        <v>41895</v>
       </c>
       <c r="D1625" t="n">
         <v>8880</v>
       </c>
       <c r="E1625" t="n">
-        <v>114351813</v>
+        <v>114354508</v>
       </c>
       <c r="F1625" t="inlineStr">
         <is>
@@ -83479,13 +83479,13 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>30163</v>
+        <v>30165</v>
       </c>
       <c r="D1629" t="n">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="E1629" t="n">
-        <v>96078132</v>
+        <v>96098060</v>
       </c>
       <c r="F1629" t="inlineStr">
         <is>
@@ -84193,13 +84193,13 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>12787</v>
+        <v>12789</v>
       </c>
       <c r="D1643" t="n">
         <v>1654</v>
       </c>
       <c r="E1643" t="n">
-        <v>28694362</v>
+        <v>28699078</v>
       </c>
       <c r="F1643" t="inlineStr">
         <is>
